--- a/Proyectos/2015/12/P1404 - RNCFAC, Alfredo Martinez_MO/planeacion/Plan_proyecto.xlsx
+++ b/Proyectos/2015/12/P1404 - RNCFAC, Alfredo Martinez_MO/planeacion/Plan_proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -4396,11 +4396,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4410,6 +4405,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4786,7 +4786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMI11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
@@ -9297,7 +9297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
